--- a/src/main/resources/templates/Bom单标准化.xlsx
+++ b/src/main/resources/templates/Bom单标准化.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\zepin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LianChuangJie\springboot\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740C7F6D-E9F6-4365-BF12-080C7EC3B7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55A59D6-0B9A-40F3-94DC-F7CFBF0C15F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD8D6D6"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,7 +454,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
